--- a/notes/nfc_protocols_arch.xlsx
+++ b/notes/nfc_protocols_arch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="372" windowWidth="13800" windowHeight="5472" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="744" windowWidth="13800" windowHeight="5472" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arch" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="286">
   <si>
     <t>Host - AP</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3047,10 +3047,1488 @@
     <t>10.4.3 U-Frames coding</t>
   </si>
   <si>
-    <t>• RSET: Reset of the data link layer is used to reset the sequence number variables in the both endpoints.</t>
-  </si>
-  <si>
-    <t>• UA: Unnumbered Acknowledgment is used to acknowledge the receipt and acceptance of a RSET command.</t>
+    <t>10.5 Changing sliding window size and endpoint capabilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sliding window size is negotiated during SHDLC session establishment.</t>
+  </si>
+  <si>
+    <t>The RSET frame may carry a configuration field in order to change the sliding window size (down to 2). If the default</t>
+  </si>
+  <si>
+    <t>size (in case of an RSET command without configuration field) or the size provided is too large at a RSET frame</t>
+  </si>
+  <si>
+    <t>reception, the receiver shall not acknowledge it. Instead, the receiver shall send a RSET frame with an appropriate</t>
+  </si>
+  <si>
+    <t>sliding window size (which is lower than the window size offered by the other endpoint).</t>
+  </si>
+  <si>
+    <t>It acknowledges the new size with a UA frame.</t>
+  </si>
+  <si>
+    <t>SREJ support is negotiated in the same way. The RSET frame may carry a configuration field in order to indicate the</t>
+  </si>
+  <si>
+    <t>capability of the endpoint to support this frame. If one or more of the indicated endpoint capabilities are not supported</t>
+  </si>
+  <si>
+    <t>by the receiving endpoint, it shall answer with a RSET frame indicating only the supported endpoint capabilities. In this</t>
+  </si>
+  <si>
+    <t>case the RSET response may contain the same window size.</t>
+  </si>
+  <si>
+    <t>10.5.1 RSET frame payload</t>
+  </si>
+  <si>
+    <r>
+      <t>The RSET frame has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 optional bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in order to provide the endpoint </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>window size and capabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• UA: Unnumbered Acknowledgment is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acknowledge the receipt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acceptance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RSET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• RSET: Reset of the data link layer is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reset the sequence number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variables in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>both</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> endpoints.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN548 don't support SREJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 SHDLC context</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The SHDLC context is defined by constant values such as the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timeouts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sliding window size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as well as a number of variables as defined below.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6.1 Constants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• w: Sliding window size. w = 4 by default</t>
+  </si>
+  <si>
+    <t>• T1: Acknowledge time.</t>
+  </si>
+  <si>
+    <t>• T2: Guarding/transmit time. T2 ≥ 10 ms</t>
+  </si>
+  <si>
+    <t>• T3: Connection time. T3 ≤ 5 ms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This value is not actually constant because it may be reduced at link establishment. However, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>up to the next reset of the SHDLC session, it never changes.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I-frames shall be acknowledged within T1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to avoid that the traffic stops. The T1 value is bound to the w value. T1 ≤ 5ms x w / 4.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The acknowledge time is defined from the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>last bit of the EOF of the I-frame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to be acknowledged </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to the first bit of the SOF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the frame providing the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acknowledgement.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>If the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I-frames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not acknowledged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, an endpoint shall </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">retransmit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">these frames. This value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defines the time to wait. T2 is unaffected by modifications of w.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The guarding/transmit time is defined from the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>last bit of the EOF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the not acknowledged I-frame to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first bit of the SOF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the retransmitted frame.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used at link establishment, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retry to setup link if the targeted endpoint did not answer with an UA frame or a RSET frame within T3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. T3 is unaffected by modifications of w.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The connection time is calculated from the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> last bit of the EOF of the RSET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frame to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first bit of the SOF of the response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frame.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6.2 Variables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>These three variables are modulo 8 and hold sequence numbers.</t>
+  </si>
+  <si>
+    <t>• DN(R): Lowest unacknowledged sequence number.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• N(S): Sequence number for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emission.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Used in I Frames. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incremented after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> emission of the frame.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• N(R): Next sequence number for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reception.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Used in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I and S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type frames.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>During full duplex data transmission or by emission of a S type frame, all received frames with a sequence number lower than N(R) are acknowledged.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acknowledgements are outstanding for frames with sequence number greater or equal to DN(R) and lower than N(S).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• If X ≤ Z then the equation to calculate is: X ≤ Y &lt; Z</t>
+  </si>
+  <si>
+    <t>• Otherwise the equation to calculate is: Y ≥ X or Y &lt; Z</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To know if a frame is in the window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sequence numbers are compared using modulo 8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The definition used for X ≤ Y &lt; Z modulo 8 is as follows:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6.3 Initial Reset State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• N(S) = N(R) = DN(R) = 0.</t>
+  </si>
+  <si>
+    <t>10.7.2 Link establishment with default sliding window size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An endpoint establishing an SHDLC link shall initiate link establishment by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sending a RSET frame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the SHDLC frame exchange on the link enters into an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> condition which cannot be recovered by other SHDLC</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">means, an endpoint may also </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reset and re-establish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the link by sending a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RSET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frame.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>target is ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, it shall answer with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frame. The link is established after receiving this acknowledgment.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before link establishment, all frames except RSET from other endpoint shall be discarded.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connection timeout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is required in order to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>failure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the operation.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this example, both endpoints work with the default window size and the UICC does not send a RSET frame because it received a RSET frame first and agreed on the default window size.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Simultaneous resets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are handled gracefully. After </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>both endpoints send UA frames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, link is established using the default window size.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7.3 Link establishment with custom sliding window size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UICC has a smaller window size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than the CLF, it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ignores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the received </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RSET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frame. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLF sees the customized RSET frame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> its window configuration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 and sends an UA frame to establish the link.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In case of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RSET frames crossover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the mechanism still works.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In case of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frame loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the link establishment restarts and link configuration is finally completed.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7.4 Data flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The CLF sends a stream of data. The UICC has no data to send. So, the piggyback mechanism is not used</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The UICC shall </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acknowledge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frame reception regularly in order </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to avoid traffic stop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acknowledge timeout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is used in order to send RR frames to the CLF.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The timeout </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starts at the first received packet after the previous acknowledgement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (other RR frame or piggybacking). </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UICC sends information frames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (not shows here), the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">acknowledge timeout shall be stopped </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as piggybacking will acknowledge received frames.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3405,10 +4883,19 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3418,15 +4905,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5224,6 +6702,556 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="94945200"/>
+          <a:ext cx="2430780" cy="1432560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>272079</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>173915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3388659" y="93053647"/>
+          <a:ext cx="5417820" cy="1464833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295835</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>74144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="100978447"/>
+          <a:ext cx="2734235" cy="1508497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>474682</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>131781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3926542" y="100404705"/>
+          <a:ext cx="5692140" cy="2498464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307937</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>160917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="681317" y="105209789"/>
+          <a:ext cx="6332220" cy="1308399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>478267</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>148366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="699247" y="107020659"/>
+          <a:ext cx="4655820" cy="1277919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476474</xdr:colOff>
+      <xdr:row>617</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="636494" y="109127364"/>
+          <a:ext cx="4716780" cy="1586753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548191</xdr:colOff>
+      <xdr:row>630</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="708211" y="111099600"/>
+          <a:ext cx="4107180" cy="1907241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62752</xdr:colOff>
+      <xdr:row>612</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>512332</xdr:colOff>
+      <xdr:row>630</xdr:row>
+      <xdr:rowOff>41237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6158752" y="109862470"/>
+          <a:ext cx="5326380" cy="3169920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>638</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>193189</xdr:colOff>
+      <xdr:row>646</xdr:row>
+      <xdr:rowOff>24653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="779929" y="114515153"/>
+          <a:ext cx="6118860" cy="1369359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5581,10 +7609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AG499"/>
+  <dimension ref="A2:AG638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X499" sqref="X499"/>
+    <sheetView tabSelected="1" topLeftCell="A614" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O643" sqref="O643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6467,32 +8495,32 @@
       </c>
     </row>
     <row r="431" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z431" s="27" t="s">
+      <c r="Z431" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="AA431" s="27"/>
-      <c r="AB431" s="27"/>
-      <c r="AC431" s="27"/>
-      <c r="AD431" s="27"/>
-      <c r="AE431" s="27"/>
-      <c r="AF431" s="27"/>
-      <c r="AG431" s="27"/>
+      <c r="AA431" s="31"/>
+      <c r="AB431" s="31"/>
+      <c r="AC431" s="31"/>
+      <c r="AD431" s="31"/>
+      <c r="AE431" s="31"/>
+      <c r="AF431" s="31"/>
+      <c r="AG431" s="31"/>
     </row>
     <row r="432" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z432" s="29"/>
-      <c r="AA432" s="30"/>
-      <c r="AB432" s="31"/>
-      <c r="AC432" s="28" t="s">
+      <c r="Z432" s="32"/>
+      <c r="AA432" s="33"/>
+      <c r="AB432" s="34"/>
+      <c r="AC432" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="AD432" s="28" t="s">
+      <c r="AD432" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="AE432" s="27" t="s">
+      <c r="AE432" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="AF432" s="27"/>
-      <c r="AG432" s="27"/>
+      <c r="AF432" s="31"/>
+      <c r="AG432" s="31"/>
     </row>
     <row r="433" spans="1:33" x14ac:dyDescent="0.25">
       <c r="X433" s="11" t="s">
@@ -6501,28 +8529,28 @@
       <c r="Y433" s="11">
         <v>69</v>
       </c>
-      <c r="Z433" s="32">
+      <c r="Z433" s="28">
         <v>0</v>
       </c>
-      <c r="AA433" s="33">
+      <c r="AA433" s="29">
         <v>1</v>
       </c>
-      <c r="AB433" s="33">
+      <c r="AB433" s="29">
         <v>1</v>
       </c>
-      <c r="AC433" s="33">
+      <c r="AC433" s="29">
         <v>0</v>
       </c>
-      <c r="AD433" s="33">
+      <c r="AD433" s="29">
         <v>1</v>
       </c>
-      <c r="AE433" s="33">
+      <c r="AE433" s="29">
         <v>0</v>
       </c>
-      <c r="AF433" s="33">
+      <c r="AF433" s="29">
         <v>0</v>
       </c>
-      <c r="AG433" s="34">
+      <c r="AG433" s="30">
         <v>1</v>
       </c>
     </row>
@@ -6728,14 +8756,314 @@
         <v>223</v>
       </c>
     </row>
-    <row r="498" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I498" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I499" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A502" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="499" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I499" s="11" t="s">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B503" s="11" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B505" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B506" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B507" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B508" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B510" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B512" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B513" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B514" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B515" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A517" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B518" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P522" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B531" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B534" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C535" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B537" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C538" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C539" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B541" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C542" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C543" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B545" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C546" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C547" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B550" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B551" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B552" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C553" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B554" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C555" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B557" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B558" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B559" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B607" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K612" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B619" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B634" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B635" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B636" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B637" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B638" s="11" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6746,6 +9074,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>